--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/12_pieces_Chicken Cutlet Fry 50 Gm.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/12_pieces_Chicken Cutlet Fry 50 Gm.xlsx
@@ -495,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>16.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0.28</v>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>16.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>0.28</v>
@@ -529,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>16.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>0.12</v>
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>16.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0.15</v>
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0.045</v>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>16.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0.027</v>
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0.75</v>
@@ -614,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>0.21</v>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>33.33333333333334</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>0.04615384615384616</v>
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>2.6</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>6.666666666666667</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>0.7</v>
@@ -721,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>0.1647058823529412</v>
@@ -735,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0.7</v>
@@ -749,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>0.05</v>
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>16.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>0.07000000000000001</v>
@@ -777,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>6.666666666666667</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -791,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>333.3333333333334</v>
+        <v>400</v>
       </c>
       <c r="D21">
         <v>0.12</v>
@@ -805,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D22">
         <v>0.25</v>
@@ -819,7 +819,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D23">
         <v>0.12</v>
